--- a/Sold Dollar Volume.xlsx
+++ b/Sold Dollar Volume.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DateSelector</t>
   </si>
@@ -49,10 +49,16 @@
     <t>MSI</t>
   </si>
   <si>
+    <t>Multi-Family</t>
+  </si>
+  <si>
+    <t>Condo/Townhouse</t>
+  </si>
+  <si>
     <t>Single Family Residence</t>
   </si>
   <si>
-    <t>Condo/Townhouse</t>
+    <t>Land</t>
   </si>
 </sst>
 </file>
@@ -404,7 +410,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -468,7 +474,7 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2">
-        <v>517923991</v>
+        <v>8995044</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -497,16 +503,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4">
-        <v>621450479</v>
+        <v>517923991</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -516,16 +522,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5">
-        <v>307139081</v>
+        <v>30541669</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -535,16 +541,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6">
-        <v>882473493</v>
+        <v>37426280</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -554,7 +560,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -563,7 +569,7 @@
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7">
-        <v>436163094</v>
+        <v>307139081</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -573,16 +579,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8">
-        <v>446770121</v>
+        <v>12574100</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -592,16 +598,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9">
-        <v>1011118882</v>
+        <v>621450479</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -611,7 +617,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -620,7 +626,7 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10">
-        <v>1008988538</v>
+        <v>16884750</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -630,7 +636,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -639,7 +645,7 @@
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11">
-        <v>460980260</v>
+        <v>436163094</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -649,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12">
-        <v>875879578</v>
+        <v>45129016</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -668,16 +674,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13">
-        <v>369473106</v>
+        <v>882473493</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -687,16 +693,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14">
-        <v>675049219</v>
+        <v>54155443</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -706,7 +712,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -715,7 +721,7 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15">
-        <v>276384449</v>
+        <v>446770121</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -725,16 +731,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16">
-        <v>278482415</v>
+        <v>1011118882</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -744,7 +750,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -753,7 +759,7 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17">
-        <v>644377870</v>
+        <v>17291450</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -763,16 +769,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18">
-        <v>249120538</v>
+        <v>1008988538</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -782,7 +788,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -791,7 +797,7 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19">
-        <v>521198162</v>
+        <v>13306184</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -801,16 +807,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20">
-        <v>587286595</v>
+        <v>460980260</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -820,16 +826,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21">
-        <v>243614485</v>
+        <v>46256825</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -839,7 +845,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -848,7 +854,7 @@
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22">
-        <v>272364419</v>
+        <v>369473106</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -858,7 +864,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -867,7 +873,7 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23">
-        <v>566663546</v>
+        <v>21465150</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -877,16 +883,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24">
-        <v>545571262</v>
+        <v>33444123</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -896,16 +902,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25">
-        <v>278974539</v>
+        <v>875879578</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -915,16 +921,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26">
-        <v>544005007</v>
+        <v>31721056</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -934,16 +940,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27">
-        <v>237880283</v>
+        <v>675049219</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -953,16 +959,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28">
-        <v>585742830</v>
+        <v>276384449</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -972,16 +978,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29">
-        <v>261366696</v>
+        <v>18919465</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -991,7 +997,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1000,7 +1006,7 @@
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30">
-        <v>797121693</v>
+        <v>14731074</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1010,16 +1016,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31">
-        <v>406901018</v>
+        <v>36884187</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -1029,16 +1035,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32">
-        <v>996022523</v>
+        <v>278482415</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -1048,16 +1054,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33">
-        <v>552833712</v>
+        <v>644377870</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -1067,16 +1073,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34">
-        <v>1036948489</v>
+        <v>521198162</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -1086,7 +1092,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1095,7 +1101,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35">
-        <v>489410392</v>
+        <v>249120538</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -1105,7 +1111,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1114,7 +1120,7 @@
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36">
-        <v>835194340</v>
+        <v>14811022</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -1124,16 +1130,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37">
-        <v>351018122</v>
+        <v>23234097</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -1143,16 +1149,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38">
-        <v>300898315</v>
+        <v>39056184</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -1162,16 +1168,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39">
-        <v>794343905</v>
+        <v>243614485</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -1181,16 +1187,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40">
-        <v>679855740</v>
+        <v>587286595</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -1200,16 +1206,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41">
-        <v>276692571</v>
+        <v>14689250</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -1219,16 +1225,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42">
-        <v>605154476</v>
+        <v>272364419</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -1238,16 +1244,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43">
-        <v>245382694</v>
+        <v>18244322</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -1257,16 +1263,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44">
-        <v>255400014</v>
+        <v>17497050</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -1276,16 +1282,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45">
-        <v>628091878</v>
+        <v>566663546</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
@@ -1295,16 +1301,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46">
-        <v>605218035</v>
+        <v>278974539</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -1314,16 +1320,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47">
-        <v>255281988</v>
+        <v>23391591</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -1333,16 +1339,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48">
-        <v>375248161</v>
+        <v>545571262</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -1361,7 +1367,7 @@
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49">
-        <v>808036886</v>
+        <v>12810804</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -1371,7 +1377,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -1380,7 +1386,7 @@
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50">
-        <v>685549410</v>
+        <v>12445992</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -1390,16 +1396,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51">
-        <v>314567337</v>
+        <v>544005007</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -1418,7 +1424,7 @@
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52">
-        <v>367343708</v>
+        <v>237880283</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -1428,16 +1434,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53">
-        <v>729145809</v>
+        <v>33699312</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -1447,7 +1453,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -1456,7 +1462,7 @@
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54">
-        <v>1129367212</v>
+        <v>8409650</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -1466,16 +1472,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55">
-        <v>527543986</v>
+        <v>585742830</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -1485,16 +1491,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56">
-        <v>336707276</v>
+        <v>41211723</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -1504,16 +1510,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57">
-        <v>750104737</v>
+        <v>261366696</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -1532,7 +1538,7 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58">
-        <v>224130120</v>
+        <v>406901018</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -1542,16 +1548,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59">
-        <v>583659902</v>
+        <v>797121693</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -1561,16 +1567,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60">
-        <v>968244276</v>
+        <v>53298652</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -1580,16 +1586,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61">
-        <v>324829237</v>
+        <v>14980388</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -1599,16 +1605,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62">
-        <v>1112029078</v>
+        <v>996022523</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -1618,16 +1624,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63">
-        <v>386902016</v>
+        <v>16480988</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -1637,16 +1643,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64">
-        <v>455812964</v>
+        <v>55616989</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -1656,16 +1662,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65">
-        <v>1063192175</v>
+        <v>552833712</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -1675,16 +1681,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66">
-        <v>1097397458</v>
+        <v>1036948489</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -1703,7 +1709,7 @@
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67">
-        <v>425718352</v>
+        <v>489410392</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -1713,7 +1719,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -1722,7 +1728,7 @@
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68">
-        <v>1335169120</v>
+        <v>23303395</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -1732,16 +1738,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69">
-        <v>520052294</v>
+        <v>29162471</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -1751,16 +1757,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70">
-        <v>479708029</v>
+        <v>835194340</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -1779,7 +1785,7 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71">
-        <v>1199915777</v>
+        <v>18292921</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -1789,16 +1795,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72">
-        <v>674761138</v>
+        <v>33433180</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -1808,16 +1814,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73">
-        <v>1606588427</v>
+        <v>351018122</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -1827,16 +1833,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74">
-        <v>523709775</v>
+        <v>33005590</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -1846,16 +1852,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75">
-        <v>1244013601</v>
+        <v>300898315</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -1865,16 +1871,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76">
-        <v>1304149519</v>
+        <v>794343905</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -1884,16 +1890,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77">
-        <v>682462022</v>
+        <v>21634730</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
@@ -1903,7 +1909,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -1912,7 +1918,7 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78">
-        <v>2039235331</v>
+        <v>15931383</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
@@ -1931,7 +1937,7 @@
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79">
-        <v>983043015</v>
+        <v>276692571</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -1941,16 +1947,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80">
-        <v>1048064085</v>
+        <v>32206046</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
@@ -1960,16 +1966,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81">
-        <v>2029589349</v>
+        <v>679855740</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -1979,7 +1985,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -1988,7 +1994,7 @@
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82">
-        <v>1811855791</v>
+        <v>13166133</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -1998,7 +2004,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
@@ -2007,7 +2013,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83">
-        <v>881675010</v>
+        <v>245382694</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
@@ -2017,16 +2023,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84">
-        <v>1768178634</v>
+        <v>605154476</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -2036,16 +2042,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85">
-        <v>773075818</v>
+        <v>28377817</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -2055,16 +2061,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86">
-        <v>584396687</v>
+        <v>628091878</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -2074,16 +2080,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87">
-        <v>1466500956</v>
+        <v>51469531</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -2102,7 +2108,7 @@
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88">
-        <v>1185428141</v>
+        <v>16877975</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -2112,7 +2118,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -2121,7 +2127,7 @@
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89">
-        <v>491498213</v>
+        <v>255400014</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -2131,16 +2137,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90">
-        <v>470885350</v>
+        <v>36405025</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -2150,7 +2156,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -2159,7 +2165,7 @@
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91">
-        <v>1138917635</v>
+        <v>14302549</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -2169,16 +2175,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92">
-        <v>440025726</v>
+        <v>605218035</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -2188,16 +2194,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93">
-        <v>1149822494</v>
+        <v>255281988</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -2207,16 +2213,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94">
-        <v>1277861184</v>
+        <v>375248161</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -2226,16 +2232,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95">
-        <v>487740736</v>
+        <v>41772920</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -2245,16 +2251,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96">
-        <v>646843636</v>
+        <v>808036886</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -2264,7 +2270,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -2273,7 +2279,7 @@
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97">
-        <v>1602721132</v>
+        <v>18088913</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -2283,16 +2289,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98">
-        <v>507230476</v>
+        <v>44753582</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -2302,16 +2308,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99">
-        <v>1166732339</v>
+        <v>685549410</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -2321,16 +2327,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100">
-        <v>514334537</v>
+        <v>16449200</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -2340,16 +2346,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101">
-        <v>1295437444</v>
+        <v>314567337</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -2359,7 +2365,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -2368,7 +2374,7 @@
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102">
-        <v>1930842988</v>
+        <v>17669960</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
@@ -2378,16 +2384,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103">
-        <v>785480173</v>
+        <v>729145809</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
@@ -2397,16 +2403,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104">
-        <v>1977253606</v>
+        <v>44014885</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -2425,7 +2431,7 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105">
-        <v>893425663</v>
+        <v>367343708</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
@@ -2435,7 +2441,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -2444,7 +2450,7 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106">
-        <v>921677535</v>
+        <v>527543986</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
@@ -2454,7 +2460,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -2463,7 +2469,7 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107">
-        <v>1993892420</v>
+        <v>15370800</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -2473,16 +2479,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108">
-        <v>757037126</v>
+        <v>49385083</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -2492,16 +2498,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109">
-        <v>1477988412</v>
+        <v>1129367212</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
@@ -2511,16 +2517,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110">
-        <v>415876502</v>
+        <v>11986175</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
@@ -2530,16 +2536,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111">
-        <v>1107973991</v>
+        <v>21525450</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
@@ -2549,16 +2555,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112">
-        <v>1189915799</v>
+        <v>336707276</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -2568,16 +2574,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113">
-        <v>418348123</v>
+        <v>750104737</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -2587,16 +2593,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114">
-        <v>332356611</v>
+        <v>35519082</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
@@ -2606,16 +2612,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115">
-        <v>787023975</v>
+        <v>583659902</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -2634,7 +2640,7 @@
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116">
-        <v>368557923</v>
+        <v>224130120</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
@@ -2644,7 +2650,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -2653,7 +2659,7 @@
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117">
-        <v>867735573</v>
+        <v>7716015</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
@@ -2663,16 +2669,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118">
-        <v>370375738</v>
+        <v>57416954</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
@@ -2682,16 +2688,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119">
-        <v>871941437</v>
+        <v>324829237</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -2701,16 +2707,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
       <c r="F120">
-        <v>385607155</v>
+        <v>968244276</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
@@ -2720,7 +2726,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -2729,7 +2735,7 @@
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121">
-        <v>1068852355</v>
+        <v>14091500</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -2739,7 +2745,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -2748,7 +2754,7 @@
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122">
-        <v>989390089</v>
+        <v>18169400</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
@@ -2758,16 +2764,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123">
-        <v>408026923</v>
+        <v>71252706</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
@@ -2777,16 +2783,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124">
-        <v>1130384100</v>
+        <v>386902016</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
@@ -2796,16 +2802,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125">
-        <v>481143156</v>
+        <v>1112029078</v>
       </c>
       <c r="G125"/>
       <c r="H125"/>
@@ -2815,7 +2821,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -2824,7 +2830,7 @@
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126">
-        <v>761046089</v>
+        <v>455812964</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
@@ -2834,16 +2840,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127">
-        <v>1534771752</v>
+        <v>1063192175</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -2853,16 +2859,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128">
-        <v>1358189902</v>
+        <v>63174003</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
@@ -2872,16 +2878,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129">
-        <v>734085895</v>
+        <v>20413450</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
@@ -2891,7 +2897,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -2900,7 +2906,7 @@
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130">
-        <v>1702012777</v>
+        <v>16729700</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
@@ -2910,16 +2916,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
       <c r="F131">
-        <v>748405561</v>
+        <v>1097397458</v>
       </c>
       <c r="G131"/>
       <c r="H131"/>
@@ -2929,7 +2935,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -2938,7 +2944,7 @@
       <c r="D132"/>
       <c r="E132"/>
       <c r="F132">
-        <v>526895738</v>
+        <v>425718352</v>
       </c>
       <c r="G132"/>
       <c r="H132"/>
@@ -2948,16 +2954,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133">
-        <v>1385059253</v>
+        <v>95496040</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
@@ -2967,16 +2973,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
       <c r="F134">
-        <v>1134280233</v>
+        <v>91951612</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
@@ -2986,7 +2992,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -2995,7 +3001,7 @@
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135">
-        <v>348592427</v>
+        <v>520052294</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
@@ -3005,16 +3011,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136">
-        <v>504233916</v>
+        <v>1335169120</v>
       </c>
       <c r="G136"/>
       <c r="H136"/>
@@ -3024,7 +3030,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -3033,7 +3039,7 @@
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137">
-        <v>1130733455</v>
+        <v>27201702</v>
       </c>
       <c r="G137"/>
       <c r="H137"/>
@@ -3043,7 +3049,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -3052,7 +3058,7 @@
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138">
-        <v>381473054</v>
+        <v>479708029</v>
       </c>
       <c r="G138"/>
       <c r="H138"/>
@@ -3062,16 +3068,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
       <c r="F139">
-        <v>1010736545</v>
+        <v>68978831</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
@@ -3081,16 +3087,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140">
-        <v>951465376</v>
+        <v>1199915777</v>
       </c>
       <c r="G140"/>
       <c r="H140"/>
@@ -3100,16 +3106,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
       <c r="F141">
-        <v>378791086</v>
+        <v>20833075</v>
       </c>
       <c r="G141"/>
       <c r="H141"/>
@@ -3119,16 +3125,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142">
-        <v>804432295</v>
+        <v>674761138</v>
       </c>
       <c r="G142"/>
       <c r="H142"/>
@@ -3138,16 +3144,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143">
-        <v>397980201</v>
+        <v>1606588427</v>
       </c>
       <c r="G143"/>
       <c r="H143"/>
@@ -3157,16 +3163,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144">
-        <v>991866192</v>
+        <v>125167276</v>
       </c>
       <c r="G144"/>
       <c r="H144"/>
@@ -3176,16 +3182,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
       <c r="F145">
-        <v>404665892</v>
+        <v>31497975</v>
       </c>
       <c r="G145"/>
       <c r="H145"/>
@@ -3195,7 +3201,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -3204,7 +3210,7 @@
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146">
-        <v>356623522</v>
+        <v>523709775</v>
       </c>
       <c r="G146"/>
       <c r="H146"/>
@@ -3214,16 +3220,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147">
-        <v>920236774</v>
+        <v>1244013601</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
@@ -3233,16 +3239,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148"/>
       <c r="F148">
-        <v>484525264</v>
+        <v>109661953</v>
       </c>
       <c r="G148"/>
       <c r="H148"/>
@@ -3252,7 +3258,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -3261,7 +3267,7 @@
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149">
-        <v>1097678944</v>
+        <v>19417740</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
@@ -3271,16 +3277,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
       <c r="F150">
-        <v>1591548687</v>
+        <v>682462022</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
@@ -3290,16 +3296,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151">
-        <v>689603439</v>
+        <v>1304149519</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
@@ -3309,16 +3315,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152">
-        <v>1676970766</v>
+        <v>121008522</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
@@ -3328,16 +3334,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153">
-        <v>778634303</v>
+        <v>20390550</v>
       </c>
       <c r="G153"/>
       <c r="H153"/>
@@ -3347,7 +3353,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
@@ -3356,7 +3362,7 @@
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154">
-        <v>667659655</v>
+        <v>983043015</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -3366,16 +3372,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155">
-        <v>1688278462</v>
+        <v>193664023</v>
       </c>
       <c r="G155"/>
       <c r="H155"/>
@@ -3385,16 +3391,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
       <c r="F156">
-        <v>473637058</v>
+        <v>40128390</v>
       </c>
       <c r="G156"/>
       <c r="H156"/>
@@ -3404,16 +3410,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157">
-        <v>1258522168</v>
+        <v>2039235331</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
@@ -3423,16 +3429,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158">
-        <v>337119271</v>
+        <v>195518528</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
@@ -3442,7 +3448,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -3451,7 +3457,7 @@
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159">
-        <v>1054631835</v>
+        <v>38814488</v>
       </c>
       <c r="G159"/>
       <c r="H159"/>
@@ -3461,16 +3467,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160">
-        <v>1024014799</v>
+        <v>1048064085</v>
       </c>
       <c r="G160"/>
       <c r="H160"/>
@@ -3480,16 +3486,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161">
-        <v>386957762</v>
+        <v>2029589349</v>
       </c>
       <c r="G161"/>
       <c r="H161"/>
@@ -3499,16 +3505,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162">
-        <v>285626542</v>
+        <v>1811855791</v>
       </c>
       <c r="G162"/>
       <c r="H162"/>
@@ -3518,16 +3524,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
       <c r="F163">
-        <v>878527389</v>
+        <v>881675010</v>
       </c>
       <c r="G163"/>
       <c r="H163"/>
@@ -3537,16 +3543,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164">
-        <v>271807759</v>
+        <v>31914569</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
@@ -3556,16 +3562,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
       <c r="F165">
-        <v>813365377</v>
+        <v>136710368</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
@@ -3575,16 +3581,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166">
-        <v>245022228</v>
+        <v>1768178634</v>
       </c>
       <c r="G166"/>
       <c r="H166"/>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -3603,7 +3609,7 @@
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167">
-        <v>875151613</v>
+        <v>32063366</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
@@ -3613,7 +3619,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
@@ -3622,7 +3628,7 @@
       <c r="D168"/>
       <c r="E168"/>
       <c r="F168">
-        <v>358244551</v>
+        <v>773075818</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
@@ -3632,16 +3638,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
       <c r="F169">
-        <v>1035223218</v>
+        <v>151083742</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
@@ -3651,16 +3657,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
       <c r="F170">
-        <v>348040566</v>
+        <v>34225462</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
@@ -3670,16 +3676,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
       <c r="F171">
-        <v>1067960288</v>
+        <v>1466500956</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
@@ -3689,16 +3695,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C172"/>
       <c r="D172"/>
       <c r="E172"/>
       <c r="F172">
-        <v>430679173</v>
+        <v>121758639</v>
       </c>
       <c r="G172"/>
       <c r="H172"/>
@@ -3708,16 +3714,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
       <c r="F173">
-        <v>1115164759</v>
+        <v>584396687</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
@@ -3727,16 +3733,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
       <c r="F174">
-        <v>570939727</v>
+        <v>1185428141</v>
       </c>
       <c r="G174"/>
       <c r="H174"/>
@@ -3746,16 +3752,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C175"/>
       <c r="D175"/>
       <c r="E175"/>
       <c r="F175">
-        <v>1525252465</v>
+        <v>491498213</v>
       </c>
       <c r="G175"/>
       <c r="H175"/>
@@ -3765,16 +3771,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
       <c r="F176">
-        <v>625928961</v>
+        <v>25699899</v>
       </c>
       <c r="G176"/>
       <c r="H176"/>
@@ -3784,16 +3790,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
       <c r="F177">
-        <v>1747489832</v>
+        <v>124946723</v>
       </c>
       <c r="G177"/>
       <c r="H177"/>
@@ -3803,16 +3809,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
       <c r="F178">
-        <v>1418567672</v>
+        <v>93806419</v>
       </c>
       <c r="G178"/>
       <c r="H178"/>
@@ -3822,7 +3828,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B179" t="s">
         <v>12</v>
@@ -3831,7 +3837,7 @@
       <c r="D179"/>
       <c r="E179"/>
       <c r="F179">
-        <v>495098274</v>
+        <v>470885350</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
@@ -3841,16 +3847,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
       <c r="F180">
-        <v>1461227161</v>
+        <v>1138917635</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -3860,16 +3866,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
       <c r="F181">
-        <v>380471605</v>
+        <v>27621650</v>
       </c>
       <c r="G181"/>
       <c r="H181"/>
@@ -3879,16 +3885,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
       <c r="F182">
-        <v>323780941</v>
+        <v>34923420</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
@@ -3898,16 +3904,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
       <c r="F183">
-        <v>1020621546</v>
+        <v>88497544</v>
       </c>
       <c r="G183"/>
       <c r="H183"/>
@@ -3917,16 +3923,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
       <c r="F184">
-        <v>303304725</v>
+        <v>1149822494</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
@@ -3936,16 +3942,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C185"/>
       <c r="D185"/>
       <c r="E185"/>
       <c r="F185">
-        <v>1038478756</v>
+        <v>440025726</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
@@ -3955,16 +3961,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
       <c r="F186">
-        <v>334314495</v>
+        <v>73147854</v>
       </c>
       <c r="G186"/>
       <c r="H186"/>
@@ -3974,16 +3980,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
       <c r="F187">
-        <v>1059147168</v>
+        <v>487740736</v>
       </c>
       <c r="G187"/>
       <c r="H187"/>
@@ -3993,16 +3999,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
       <c r="F188">
-        <v>327648591</v>
+        <v>1277861184</v>
       </c>
       <c r="G188"/>
       <c r="H188"/>
@@ -4012,7 +4018,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -4021,7 +4027,7 @@
       <c r="D189"/>
       <c r="E189"/>
       <c r="F189">
-        <v>1115963074</v>
+        <v>27856800</v>
       </c>
       <c r="G189"/>
       <c r="H189"/>
@@ -4031,16 +4037,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
       <c r="F190">
-        <v>292229421</v>
+        <v>1602721132</v>
       </c>
       <c r="G190"/>
       <c r="H190"/>
@@ -4050,16 +4056,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
       <c r="F191">
-        <v>901538594</v>
+        <v>131712195</v>
       </c>
       <c r="G191"/>
       <c r="H191"/>
@@ -4069,7 +4075,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -4078,7 +4084,7 @@
       <c r="D192"/>
       <c r="E192"/>
       <c r="F192">
-        <v>1244538530</v>
+        <v>36249149</v>
       </c>
       <c r="G192"/>
       <c r="H192"/>
@@ -4088,7 +4094,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B193" t="s">
         <v>12</v>
@@ -4097,7 +4103,7 @@
       <c r="D193"/>
       <c r="E193"/>
       <c r="F193">
-        <v>439466395</v>
+        <v>646843636</v>
       </c>
       <c r="G193"/>
       <c r="H193"/>
@@ -4105,6 +4111,3654 @@
       <c r="J193"/>
       <c r="K193"/>
     </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194">
+        <v>507230476</v>
+      </c>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195">
+        <v>116168123</v>
+      </c>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196">
+        <v>29145555</v>
+      </c>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197">
+        <v>1166732339</v>
+      </c>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198">
+        <v>148479857</v>
+      </c>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199">
+        <v>1295437444</v>
+      </c>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200">
+        <v>514334537</v>
+      </c>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201">
+        <v>31885000</v>
+      </c>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202">
+        <v>188811720</v>
+      </c>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203">
+        <v>32208275</v>
+      </c>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204">
+        <v>1930842988</v>
+      </c>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205">
+        <v>785480173</v>
+      </c>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206">
+        <v>893425663</v>
+      </c>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207">
+        <v>1977253606</v>
+      </c>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208">
+        <v>213127673</v>
+      </c>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209">
+        <v>37027890</v>
+      </c>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210">
+        <v>921677535</v>
+      </c>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211">
+        <v>1993892420</v>
+      </c>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212">
+        <v>38921600</v>
+      </c>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213">
+        <v>186880385</v>
+      </c>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214">
+        <v>98963506</v>
+      </c>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215">
+        <v>30706575</v>
+      </c>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216">
+        <v>1477988412</v>
+      </c>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216"/>
+      <c r="J216"/>
+      <c r="K216"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217">
+        <v>757037126</v>
+      </c>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217"/>
+      <c r="J217"/>
+      <c r="K217"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218">
+        <v>59945937</v>
+      </c>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219">
+        <v>22787970</v>
+      </c>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219"/>
+      <c r="J219"/>
+      <c r="K219"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220">
+        <v>1107973991</v>
+      </c>
+      <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221">
+        <v>415876502</v>
+      </c>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B222" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222">
+        <v>78137283</v>
+      </c>
+      <c r="G222"/>
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223">
+        <v>34069100</v>
+      </c>
+      <c r="G223"/>
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224">
+        <v>418348123</v>
+      </c>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225">
+        <v>1189915799</v>
+      </c>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226">
+        <v>332356611</v>
+      </c>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227">
+        <v>52136572</v>
+      </c>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228">
+        <v>787023975</v>
+      </c>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228"/>
+      <c r="K228"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229">
+        <v>29304800</v>
+      </c>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229"/>
+      <c r="K229"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230">
+        <v>50871862</v>
+      </c>
+      <c r="G230"/>
+      <c r="H230"/>
+      <c r="I230"/>
+      <c r="J230"/>
+      <c r="K230"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231">
+        <v>867735573</v>
+      </c>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232">
+        <v>368557923</v>
+      </c>
+      <c r="G232"/>
+      <c r="H232"/>
+      <c r="I232"/>
+      <c r="J232"/>
+      <c r="K232"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233">
+        <v>18501750</v>
+      </c>
+      <c r="G233"/>
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233"/>
+      <c r="K233"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B234" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234">
+        <v>33071553</v>
+      </c>
+      <c r="G234"/>
+      <c r="H234"/>
+      <c r="I234"/>
+      <c r="J234"/>
+      <c r="K234"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235">
+        <v>370375738</v>
+      </c>
+      <c r="G235"/>
+      <c r="H235"/>
+      <c r="I235"/>
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236">
+        <v>15726875</v>
+      </c>
+      <c r="G236"/>
+      <c r="H236"/>
+      <c r="I236"/>
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237">
+        <v>871941437</v>
+      </c>
+      <c r="G237"/>
+      <c r="H237"/>
+      <c r="I237"/>
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238">
+        <v>385607155</v>
+      </c>
+      <c r="G238"/>
+      <c r="H238"/>
+      <c r="I238"/>
+      <c r="J238"/>
+      <c r="K238"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239">
+        <v>1068852355</v>
+      </c>
+      <c r="G239"/>
+      <c r="H239"/>
+      <c r="I239"/>
+      <c r="J239"/>
+      <c r="K239"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240">
+        <v>20359800</v>
+      </c>
+      <c r="G240"/>
+      <c r="H240"/>
+      <c r="I240"/>
+      <c r="J240"/>
+      <c r="K240"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241">
+        <v>45687866</v>
+      </c>
+      <c r="G241"/>
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241"/>
+      <c r="K241"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B242" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242">
+        <v>64002903</v>
+      </c>
+      <c r="G242"/>
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B243" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243">
+        <v>17643900</v>
+      </c>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243"/>
+      <c r="K243"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244">
+        <v>989390089</v>
+      </c>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244"/>
+      <c r="K244"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245">
+        <v>408026923</v>
+      </c>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+      <c r="K245"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246">
+        <v>1130384100</v>
+      </c>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247">
+        <v>15700900</v>
+      </c>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248">
+        <v>481143156</v>
+      </c>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249">
+        <v>97590831</v>
+      </c>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250">
+        <v>105481822</v>
+      </c>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251">
+        <v>1534771752</v>
+      </c>
+      <c r="G251"/>
+      <c r="H251"/>
+      <c r="I251"/>
+      <c r="J251"/>
+      <c r="K251"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252">
+        <v>761046089</v>
+      </c>
+      <c r="G252"/>
+      <c r="H252"/>
+      <c r="I252"/>
+      <c r="J252"/>
+      <c r="K252"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253">
+        <v>27240780</v>
+      </c>
+      <c r="G253"/>
+      <c r="H253"/>
+      <c r="I253"/>
+      <c r="J253"/>
+      <c r="K253"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254">
+        <v>93470491</v>
+      </c>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+      <c r="K254"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255">
+        <v>1358189902</v>
+      </c>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256">
+        <v>734085895</v>
+      </c>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257">
+        <v>27934359</v>
+      </c>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258">
+        <v>748405561</v>
+      </c>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B259" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259">
+        <v>109898604</v>
+      </c>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260">
+        <v>21353586</v>
+      </c>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B261" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261">
+        <v>1702012777</v>
+      </c>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+      <c r="K261"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B262" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262">
+        <v>114500999</v>
+      </c>
+      <c r="G262"/>
+      <c r="H262"/>
+      <c r="I262"/>
+      <c r="J262"/>
+      <c r="K262"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263">
+        <v>1385059253</v>
+      </c>
+      <c r="G263"/>
+      <c r="H263"/>
+      <c r="I263"/>
+      <c r="J263"/>
+      <c r="K263"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264">
+        <v>526895738</v>
+      </c>
+      <c r="G264"/>
+      <c r="H264"/>
+      <c r="I264"/>
+      <c r="J264"/>
+      <c r="K264"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265">
+        <v>42010859</v>
+      </c>
+      <c r="G265"/>
+      <c r="H265"/>
+      <c r="I265"/>
+      <c r="J265"/>
+      <c r="K265"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266">
+        <v>1134280233</v>
+      </c>
+      <c r="G266"/>
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267">
+        <v>21621390</v>
+      </c>
+      <c r="G267"/>
+      <c r="H267"/>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268">
+        <v>348592427</v>
+      </c>
+      <c r="G268"/>
+      <c r="H268"/>
+      <c r="I268"/>
+      <c r="J268"/>
+      <c r="K268"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B269" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269">
+        <v>102472389</v>
+      </c>
+      <c r="G269"/>
+      <c r="H269"/>
+      <c r="I269"/>
+      <c r="J269"/>
+      <c r="K269"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270"/>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270">
+        <v>1130733455</v>
+      </c>
+      <c r="G270"/>
+      <c r="H270"/>
+      <c r="I270"/>
+      <c r="J270"/>
+      <c r="K270"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271">
+        <v>27060800</v>
+      </c>
+      <c r="G271"/>
+      <c r="H271"/>
+      <c r="I271"/>
+      <c r="J271"/>
+      <c r="K271"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272">
+        <v>504233916</v>
+      </c>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272"/>
+      <c r="J272"/>
+      <c r="K272"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273">
+        <v>87646978</v>
+      </c>
+      <c r="G273"/>
+      <c r="H273"/>
+      <c r="I273"/>
+      <c r="J273"/>
+      <c r="K273"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274"/>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274">
+        <v>381473054</v>
+      </c>
+      <c r="G274"/>
+      <c r="H274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="K274"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275">
+        <v>74177565</v>
+      </c>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275"/>
+      <c r="J275"/>
+      <c r="K275"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276"/>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276">
+        <v>27216500</v>
+      </c>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+      <c r="K276"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B277" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277"/>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277">
+        <v>1010736545</v>
+      </c>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+      <c r="K277"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278"/>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278">
+        <v>951465376</v>
+      </c>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278"/>
+      <c r="J278"/>
+      <c r="K278"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B279" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279">
+        <v>71359820</v>
+      </c>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279"/>
+      <c r="J279"/>
+      <c r="K279"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280"/>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280">
+        <v>378791086</v>
+      </c>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280"/>
+      <c r="J280"/>
+      <c r="K280"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281">
+        <v>32458975</v>
+      </c>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281"/>
+      <c r="K281"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282"/>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282">
+        <v>804432295</v>
+      </c>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282"/>
+      <c r="J282"/>
+      <c r="K282"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283"/>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283">
+        <v>397980201</v>
+      </c>
+      <c r="G283"/>
+      <c r="H283"/>
+      <c r="I283"/>
+      <c r="J283"/>
+      <c r="K283"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284">
+        <v>18396000</v>
+      </c>
+      <c r="G284"/>
+      <c r="H284"/>
+      <c r="I284"/>
+      <c r="J284"/>
+      <c r="K284"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285">
+        <v>57587195</v>
+      </c>
+      <c r="G285"/>
+      <c r="H285"/>
+      <c r="I285"/>
+      <c r="J285"/>
+      <c r="K285"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B286" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286"/>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286">
+        <v>80537115</v>
+      </c>
+      <c r="G286"/>
+      <c r="H286"/>
+      <c r="I286"/>
+      <c r="J286"/>
+      <c r="K286"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287"/>
+      <c r="D287"/>
+      <c r="E287"/>
+      <c r="F287">
+        <v>991866192</v>
+      </c>
+      <c r="G287"/>
+      <c r="H287"/>
+      <c r="I287"/>
+      <c r="J287"/>
+      <c r="K287"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288">
+        <v>404665892</v>
+      </c>
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288"/>
+      <c r="J288"/>
+      <c r="K288"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289">
+        <v>27335500</v>
+      </c>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290">
+        <v>17310800</v>
+      </c>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291">
+        <v>920236774</v>
+      </c>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292">
+        <v>97287912</v>
+      </c>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293">
+        <v>356623522</v>
+      </c>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294">
+        <v>1097678944</v>
+      </c>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295">
+        <v>19409550</v>
+      </c>
+      <c r="G295"/>
+      <c r="H295"/>
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296"/>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296">
+        <v>484525264</v>
+      </c>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297">
+        <v>83767386</v>
+      </c>
+      <c r="G297"/>
+      <c r="H297"/>
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B298" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298"/>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298">
+        <v>159342665</v>
+      </c>
+      <c r="G298"/>
+      <c r="H298"/>
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+      <c r="F299">
+        <v>1591548687</v>
+      </c>
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300">
+        <v>689603439</v>
+      </c>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301"/>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301">
+        <v>22757400</v>
+      </c>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302"/>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302">
+        <v>31270300</v>
+      </c>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303">
+        <v>778634303</v>
+      </c>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B304" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304">
+        <v>1676970766</v>
+      </c>
+      <c r="G304"/>
+      <c r="H304"/>
+      <c r="I304"/>
+      <c r="J304"/>
+      <c r="K304"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B305" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305">
+        <v>90481569</v>
+      </c>
+      <c r="G305"/>
+      <c r="H305"/>
+      <c r="I305"/>
+      <c r="J305"/>
+      <c r="K305"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B306" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306">
+        <v>1688278462</v>
+      </c>
+      <c r="G306"/>
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B307" t="s">
+        <v>14</v>
+      </c>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307">
+        <v>106753994</v>
+      </c>
+      <c r="G307"/>
+      <c r="H307"/>
+      <c r="I307"/>
+      <c r="J307"/>
+      <c r="K307"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308">
+        <v>38283550</v>
+      </c>
+      <c r="G308"/>
+      <c r="H308"/>
+      <c r="I308"/>
+      <c r="J308"/>
+      <c r="K308"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309">
+        <v>667659655</v>
+      </c>
+      <c r="G309"/>
+      <c r="H309"/>
+      <c r="I309"/>
+      <c r="J309"/>
+      <c r="K309"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B310" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310">
+        <v>74738619</v>
+      </c>
+      <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+      <c r="K310"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311">
+        <v>28405549</v>
+      </c>
+      <c r="G311"/>
+      <c r="H311"/>
+      <c r="I311"/>
+      <c r="J311"/>
+      <c r="K311"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312">
+        <v>473637058</v>
+      </c>
+      <c r="G312"/>
+      <c r="H312"/>
+      <c r="I312"/>
+      <c r="J312"/>
+      <c r="K312"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B313" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313"/>
+      <c r="D313"/>
+      <c r="E313"/>
+      <c r="F313">
+        <v>1258522168</v>
+      </c>
+      <c r="G313"/>
+      <c r="H313"/>
+      <c r="I313"/>
+      <c r="J313"/>
+      <c r="K313"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314">
+        <v>337119271</v>
+      </c>
+      <c r="G314"/>
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B315" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315">
+        <v>98034379</v>
+      </c>
+      <c r="G315"/>
+      <c r="H315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+      <c r="K315"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B316" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316">
+        <v>1054631835</v>
+      </c>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+      <c r="F317">
+        <v>28742400</v>
+      </c>
+      <c r="G317"/>
+      <c r="H317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+      <c r="K317"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B318" t="s">
+        <v>11</v>
+      </c>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318">
+        <v>26001400</v>
+      </c>
+      <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+      <c r="K318"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319">
+        <v>386957762</v>
+      </c>
+      <c r="G319"/>
+      <c r="H319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+      <c r="K319"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B320" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320">
+        <v>1024014799</v>
+      </c>
+      <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+      <c r="K320"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B321" t="s">
+        <v>14</v>
+      </c>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321">
+        <v>54561540</v>
+      </c>
+      <c r="G321"/>
+      <c r="H321"/>
+      <c r="I321"/>
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B322" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322">
+        <v>878527389</v>
+      </c>
+      <c r="G322"/>
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B323" t="s">
+        <v>11</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323">
+        <v>23601790</v>
+      </c>
+      <c r="G323"/>
+      <c r="H323"/>
+      <c r="I323"/>
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324">
+        <v>285626542</v>
+      </c>
+      <c r="G324"/>
+      <c r="H324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B325" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325">
+        <v>40131017</v>
+      </c>
+      <c r="G325"/>
+      <c r="H325"/>
+      <c r="I325"/>
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326">
+        <v>271807759</v>
+      </c>
+      <c r="G326"/>
+      <c r="H326"/>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327">
+        <v>22227290</v>
+      </c>
+      <c r="G327"/>
+      <c r="H327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B328" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328">
+        <v>63137937</v>
+      </c>
+      <c r="G328"/>
+      <c r="H328"/>
+      <c r="I328"/>
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B329" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329">
+        <v>813365377</v>
+      </c>
+      <c r="G329"/>
+      <c r="H329"/>
+      <c r="I329"/>
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B330" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330">
+        <v>17785700</v>
+      </c>
+      <c r="G330"/>
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B331" t="s">
+        <v>14</v>
+      </c>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331"/>
+      <c r="F331">
+        <v>68124513</v>
+      </c>
+      <c r="G331"/>
+      <c r="H331"/>
+      <c r="I331"/>
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B332" t="s">
+        <v>13</v>
+      </c>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332">
+        <v>875151613</v>
+      </c>
+      <c r="G332"/>
+      <c r="H332"/>
+      <c r="I332"/>
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333"/>
+      <c r="F333">
+        <v>245022228</v>
+      </c>
+      <c r="G333"/>
+      <c r="H333"/>
+      <c r="I333"/>
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334">
+        <v>1035223218</v>
+      </c>
+      <c r="G334"/>
+      <c r="H334"/>
+      <c r="I334"/>
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B335" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335">
+        <v>358244551</v>
+      </c>
+      <c r="G335"/>
+      <c r="H335"/>
+      <c r="I335"/>
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B336" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336">
+        <v>56460544</v>
+      </c>
+      <c r="G336"/>
+      <c r="H336"/>
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B337" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+      <c r="F337">
+        <v>17978200</v>
+      </c>
+      <c r="G337"/>
+      <c r="H337"/>
+      <c r="I337"/>
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338"/>
+      <c r="F338">
+        <v>348040566</v>
+      </c>
+      <c r="G338"/>
+      <c r="H338"/>
+      <c r="I338"/>
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B339" t="s">
+        <v>11</v>
+      </c>
+      <c r="C339"/>
+      <c r="D339"/>
+      <c r="E339"/>
+      <c r="F339">
+        <v>16628700</v>
+      </c>
+      <c r="G339"/>
+      <c r="H339"/>
+      <c r="I339"/>
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B340" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340"/>
+      <c r="F340">
+        <v>1067960288</v>
+      </c>
+      <c r="G340"/>
+      <c r="H340"/>
+      <c r="I340"/>
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B341" t="s">
+        <v>14</v>
+      </c>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341"/>
+      <c r="F341">
+        <v>56406159</v>
+      </c>
+      <c r="G341"/>
+      <c r="H341"/>
+      <c r="I341"/>
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342">
+        <v>1115164759</v>
+      </c>
+      <c r="G342"/>
+      <c r="H342"/>
+      <c r="I342"/>
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B343" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+      <c r="F343">
+        <v>19410499</v>
+      </c>
+      <c r="G343"/>
+      <c r="H343"/>
+      <c r="I343"/>
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B344" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
+      <c r="F344">
+        <v>65742454</v>
+      </c>
+      <c r="G344"/>
+      <c r="H344"/>
+      <c r="I344"/>
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345"/>
+      <c r="F345">
+        <v>430679173</v>
+      </c>
+      <c r="G345"/>
+      <c r="H345"/>
+      <c r="I345"/>
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346"/>
+      <c r="F346">
+        <v>24679145</v>
+      </c>
+      <c r="G346"/>
+      <c r="H346"/>
+      <c r="I346"/>
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B347" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347"/>
+      <c r="D347"/>
+      <c r="E347"/>
+      <c r="F347">
+        <v>570939727</v>
+      </c>
+      <c r="G347"/>
+      <c r="H347"/>
+      <c r="I347"/>
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B348" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348">
+        <v>82839550</v>
+      </c>
+      <c r="G348"/>
+      <c r="H348"/>
+      <c r="I348"/>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B349" t="s">
+        <v>13</v>
+      </c>
+      <c r="C349"/>
+      <c r="D349"/>
+      <c r="E349"/>
+      <c r="F349">
+        <v>1525252465</v>
+      </c>
+      <c r="G349"/>
+      <c r="H349"/>
+      <c r="I349"/>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B350" t="s">
+        <v>14</v>
+      </c>
+      <c r="C350"/>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350">
+        <v>78045191</v>
+      </c>
+      <c r="G350"/>
+      <c r="H350"/>
+      <c r="I350"/>
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351"/>
+      <c r="D351"/>
+      <c r="E351"/>
+      <c r="F351">
+        <v>30387199</v>
+      </c>
+      <c r="G351"/>
+      <c r="H351"/>
+      <c r="I351"/>
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352"/>
+      <c r="D352"/>
+      <c r="E352"/>
+      <c r="F352">
+        <v>625928961</v>
+      </c>
+      <c r="G352"/>
+      <c r="H352"/>
+      <c r="I352"/>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353"/>
+      <c r="D353"/>
+      <c r="E353"/>
+      <c r="F353">
+        <v>1747489832</v>
+      </c>
+      <c r="G353"/>
+      <c r="H353"/>
+      <c r="I353"/>
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B354" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354"/>
+      <c r="D354"/>
+      <c r="E354"/>
+      <c r="F354">
+        <v>68797645</v>
+      </c>
+      <c r="G354"/>
+      <c r="H354"/>
+      <c r="I354"/>
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355"/>
+      <c r="D355"/>
+      <c r="E355"/>
+      <c r="F355">
+        <v>495098274</v>
+      </c>
+      <c r="G355"/>
+      <c r="H355"/>
+      <c r="I355"/>
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B356" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356"/>
+      <c r="D356"/>
+      <c r="E356"/>
+      <c r="F356">
+        <v>1418567672</v>
+      </c>
+      <c r="G356"/>
+      <c r="H356"/>
+      <c r="I356"/>
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357"/>
+      <c r="D357"/>
+      <c r="E357"/>
+      <c r="F357">
+        <v>27101647</v>
+      </c>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357"/>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358">
+        <v>1461227161</v>
+      </c>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359">
+        <v>25560400</v>
+      </c>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359"/>
+      <c r="K359"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B360" t="s">
+        <v>14</v>
+      </c>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360">
+        <v>62872518</v>
+      </c>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360"/>
+      <c r="K360"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361">
+        <v>380471605</v>
+      </c>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361"/>
+      <c r="J361"/>
+      <c r="K361"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B362" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362">
+        <v>51046233</v>
+      </c>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362"/>
+      <c r="J362"/>
+      <c r="K362"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B363" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363"/>
+      <c r="D363"/>
+      <c r="E363"/>
+      <c r="F363">
+        <v>323780941</v>
+      </c>
+      <c r="G363"/>
+      <c r="H363"/>
+      <c r="I363"/>
+      <c r="J363"/>
+      <c r="K363"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364">
+        <v>22975000</v>
+      </c>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364"/>
+      <c r="J364"/>
+      <c r="K364"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365">
+        <v>1020621546</v>
+      </c>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365"/>
+      <c r="J365"/>
+      <c r="K365"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B366" t="s">
+        <v>13</v>
+      </c>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366">
+        <v>1038478756</v>
+      </c>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366"/>
+      <c r="K366"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367"/>
+      <c r="D367"/>
+      <c r="E367"/>
+      <c r="F367">
+        <v>17410350</v>
+      </c>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367"/>
+      <c r="J367"/>
+      <c r="K367"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B368" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368">
+        <v>303304725</v>
+      </c>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368"/>
+      <c r="J368"/>
+      <c r="K368"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B369" t="s">
+        <v>14</v>
+      </c>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369">
+        <v>52999170</v>
+      </c>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369"/>
+      <c r="J369"/>
+      <c r="K369"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B370" t="s">
+        <v>14</v>
+      </c>
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370">
+        <v>69536877</v>
+      </c>
+      <c r="G370"/>
+      <c r="H370"/>
+      <c r="I370"/>
+      <c r="J370"/>
+      <c r="K370"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B371" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371">
+        <v>334314495</v>
+      </c>
+      <c r="G371"/>
+      <c r="H371"/>
+      <c r="I371"/>
+      <c r="J371"/>
+      <c r="K371"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372">
+        <v>28466900</v>
+      </c>
+      <c r="G372"/>
+      <c r="H372"/>
+      <c r="I372"/>
+      <c r="J372"/>
+      <c r="K372"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373">
+        <v>1059147168</v>
+      </c>
+      <c r="G373"/>
+      <c r="H373"/>
+      <c r="I373"/>
+      <c r="J373"/>
+      <c r="K373"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B374" t="s">
+        <v>13</v>
+      </c>
+      <c r="C374"/>
+      <c r="D374"/>
+      <c r="E374"/>
+      <c r="F374">
+        <v>1115963074</v>
+      </c>
+      <c r="G374"/>
+      <c r="H374"/>
+      <c r="I374"/>
+      <c r="J374"/>
+      <c r="K374"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B375" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375"/>
+      <c r="D375"/>
+      <c r="E375"/>
+      <c r="F375">
+        <v>327648591</v>
+      </c>
+      <c r="G375"/>
+      <c r="H375"/>
+      <c r="I375"/>
+      <c r="J375"/>
+      <c r="K375"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B376" t="s">
+        <v>14</v>
+      </c>
+      <c r="C376"/>
+      <c r="D376"/>
+      <c r="E376"/>
+      <c r="F376">
+        <v>35977658</v>
+      </c>
+      <c r="G376"/>
+      <c r="H376"/>
+      <c r="I376"/>
+      <c r="J376"/>
+      <c r="K376"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B377" t="s">
+        <v>11</v>
+      </c>
+      <c r="C377"/>
+      <c r="D377"/>
+      <c r="E377"/>
+      <c r="F377">
+        <v>16233300</v>
+      </c>
+      <c r="G377"/>
+      <c r="H377"/>
+      <c r="I377"/>
+      <c r="J377"/>
+      <c r="K377"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378"/>
+      <c r="D378"/>
+      <c r="E378"/>
+      <c r="F378">
+        <v>901538594</v>
+      </c>
+      <c r="G378"/>
+      <c r="H378"/>
+      <c r="I378"/>
+      <c r="J378"/>
+      <c r="K378"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B379" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379"/>
+      <c r="D379"/>
+      <c r="E379"/>
+      <c r="F379">
+        <v>16792900</v>
+      </c>
+      <c r="G379"/>
+      <c r="H379"/>
+      <c r="I379"/>
+      <c r="J379"/>
+      <c r="K379"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B380" t="s">
+        <v>14</v>
+      </c>
+      <c r="C380"/>
+      <c r="D380"/>
+      <c r="E380"/>
+      <c r="F380">
+        <v>46651681</v>
+      </c>
+      <c r="G380"/>
+      <c r="H380"/>
+      <c r="I380"/>
+      <c r="J380"/>
+      <c r="K380"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B381" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381"/>
+      <c r="D381"/>
+      <c r="E381"/>
+      <c r="F381">
+        <v>292229421</v>
+      </c>
+      <c r="G381"/>
+      <c r="H381"/>
+      <c r="I381"/>
+      <c r="J381"/>
+      <c r="K381"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B382" t="s">
+        <v>14</v>
+      </c>
+      <c r="C382"/>
+      <c r="D382"/>
+      <c r="E382"/>
+      <c r="F382">
+        <v>52077361</v>
+      </c>
+      <c r="G382"/>
+      <c r="H382"/>
+      <c r="I382"/>
+      <c r="J382"/>
+      <c r="K382"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B383" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383">
+        <v>439466395</v>
+      </c>
+      <c r="G383"/>
+      <c r="H383"/>
+      <c r="I383"/>
+      <c r="J383"/>
+      <c r="K383"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B384" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384"/>
+      <c r="F384">
+        <v>1244538530</v>
+      </c>
+      <c r="G384"/>
+      <c r="H384"/>
+      <c r="I384"/>
+      <c r="J384"/>
+      <c r="K384"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385"/>
+      <c r="D385"/>
+      <c r="E385"/>
+      <c r="F385">
+        <v>19637899</v>
+      </c>
+      <c r="G385"/>
+      <c r="H385"/>
+      <c r="I385"/>
+      <c r="J385"/>
+      <c r="K385"/>
+    </row>
   </sheetData>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
